--- a/Deleksamen4/tilgjengelighetserklaring/wcag-sjekkliste.xlsx
+++ b/Deleksamen4/tilgjengelighetserklaring/wcag-sjekkliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIRMAJ\Documents\GitHub\webutvikling2022\Deleksamen4\tilgjengelighetserklaring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76903E95-942B-4142-86A5-5E35180A9A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A9269C-57B3-49ED-B8EA-B1E6A389199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste over krav" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Oversikt over status for universell utforming i én enkelt nettløsning. Her ser du WCAG-kravene som nettsteder skal oppfylle, sortert på de fire prinsippene i WCAG-standarden. For hver av retningslinjene finnes beskrivelser, lenker til mer informasjon, m.m., samt en nedtrekksmeny der du kan notere status pr i dag.
 Du kan laste ned arket og bruke det som arbeidsliste, men følg alltid med på uutilsynet.no for oppdatert kravliste.</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>1.1.1 Ikke-tekstlig innhold</t>
-  </si>
-  <si>
-    <t>Ikke sjekket</t>
   </si>
   <si>
     <t>1.2 Tidsbaserte medier (lyd og video)</t>
@@ -128,9 +125,6 @@
     <t>1.4.5 Bilder av tekst</t>
   </si>
   <si>
-    <t>1.4.10 Dynamisk tilpasning (Reflow)</t>
-  </si>
-  <si>
     <t>1.4.11 Kontrast for ikke-tekstlig innhold</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
   </si>
   <si>
     <t>Gjør det mulig for brukerne å navigere, finne innhold og vite hvor de befinner seg.</t>
-  </si>
-  <si>
-    <t>2.4.1 Hoppe over blokker</t>
   </si>
   <si>
     <t>2.4.2 Sidetitler</t>
@@ -296,31 +287,73 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>(Nivå A) Alle sidene mine er på norsk og har lang="nb" attributt på koden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Nivå A) For eks øverste celler på tabell er grå som betegner kategori </t>
-  </si>
-  <si>
     <t>2.4.9 Hensikt av linker</t>
-  </si>
-  <si>
-    <t>(Nivå AAA) Kildelister. tilgjengeligheterklæring er linket som PDF eller spreadsheet</t>
-  </si>
-  <si>
-    <t>(Nivå A) Alle sider har sidetitler som beskriver innholdet.</t>
-  </si>
-  <si>
-    <t>(Nivå AA) Overskrifter som beskriver hva innholdet handler om på alle sider eller forms</t>
   </si>
   <si>
     <t>2.4.7 Synlig Fokus</t>
   </si>
   <si>
-    <t>(Nivå AA) Bruker har tilgang til forms med synlig fokus der de kan legge til tekst input</t>
+    <t>2.4.2 (Nivå A) Alle sider har sidetitler som beskriver innholdet.</t>
   </si>
   <si>
-    <t>(Nivå AA) Alle bakgrunnsfarger har passende kontrast i forhold til tekst i følge webaim</t>
+    <t>2.4.7 (Nivå AA) Kontaktside har forms med synlig fokus der de kan legge til tekst input</t>
+  </si>
+  <si>
+    <t>2.4.6 (Nivå AA) Overskrifter som beskriver hva innholdet handler om på alle sider eller forms</t>
+  </si>
+  <si>
+    <t>3.1.1 (Nivå A) Alle sidene mine er på norsk og har lang="nb" attributt på koden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1 (Nivå A) For eks øverste celler på tabell er grå som betegner kategori </t>
+  </si>
+  <si>
+    <t>1.4.4 (Nivå AA) Man kan zoome inn på alle sidene mine opptil 200% uten å miste innhold</t>
+  </si>
+  <si>
+    <t>2.4.4 (Nivå A) Linker med tekst som passer i kontekst.</t>
+  </si>
+  <si>
+    <t>2.4.9 (Nivå AAA) Tilgjengeligheterklæring er linket som PDF eller spreadsheet</t>
+  </si>
+  <si>
+    <t>3.3.2 (Nivå A) Ledetekster for forms i kontakt siden som for eks: E-post:</t>
+  </si>
+  <si>
+    <t>1.4.6 Kontrast (Enhanced)</t>
+  </si>
+  <si>
+    <t>1.4.6 (Nivå AAA) Kontrast forhold er større enn 7:1 ifølge webaim contrastchecker</t>
+  </si>
+  <si>
+    <t>1.4.11 (Nivå AA) Ikke tekstlig innhold har kontrast større enn 3:1</t>
+  </si>
+  <si>
+    <t>1.4.3 (Nivå AA) Alle bakgrunnsfarger har kontrast forhold større enn 3:1 til tekst i følge webaim contrastchecker</t>
+  </si>
+  <si>
+    <t>2.4.10 Overskrifter i seksjoner</t>
+  </si>
+  <si>
+    <t>2.4.10 (Nivå AAA) Overskrifter med undertitler som spesifikt beksriver paragrafen på artikkelsidene mine</t>
+  </si>
+  <si>
+    <t>1.4.12 (Nivå AA) Tekstavstand på innhold har stor nok avstand.</t>
+  </si>
+  <si>
+    <t>2.1.1 (Nivå A) Sidene mine kan navigeres med tab tasten</t>
+  </si>
+  <si>
+    <t>nei</t>
+  </si>
+  <si>
+    <t>2.5.3 (Nivå A) Forms har label navn som for eksempel Navn.</t>
+  </si>
+  <si>
+    <t>1.3.2 (Nivå A) Navigasjonsbar med meningsfult rekkefølge, fikset med CSS</t>
+  </si>
+  <si>
+    <t>1.3.1 (Nivå A) Forms med labels på kontaktsiden min som kan programmatisk bli lest av nettlesere</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1810,10 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="36" t="s">
@@ -1884,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1"/>
@@ -1900,10 +1933,10 @@
     <row r="7" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1923,10 +1956,10 @@
       <c r="B8" s="13"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1"/>
@@ -1944,10 +1977,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="1"/>
@@ -1963,10 +1996,10 @@
     <row r="10" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1986,12 +2019,14 @@
       <c r="B11" s="13"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2007,12 +2042,14 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2028,10 +2065,10 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="1"/>
@@ -2049,10 +2086,10 @@
       <c r="B14" s="9"/>
       <c r="C14" s="16"/>
       <c r="D14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
@@ -2070,10 +2107,10 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
@@ -2089,10 +2126,10 @@
     <row r="16" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2112,13 +2149,13 @@
       <c r="B17" s="13"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2135,10 +2172,10 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
@@ -2156,13 +2193,13 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2179,12 +2216,14 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2200,10 +2239,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
@@ -2221,12 +2260,14 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2242,12 +2283,14 @@
       <c r="B23" s="9"/>
       <c r="C23" s="16"/>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2263,12 +2306,14 @@
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2284,12 +2329,11 @@
       <c r="B25" s="9"/>
       <c r="C25" s="16"/>
       <c r="D25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2302,13 +2346,13 @@
     </row>
     <row r="26" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2328,12 +2372,14 @@
       <c r="B27" s="13"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2349,10 +2395,10 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1"/>
@@ -2370,10 +2416,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="15"/>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="1"/>
@@ -2389,10 +2435,10 @@
     <row r="30" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2411,10 +2457,10 @@
       <c r="A31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1"/>
@@ -2432,10 +2478,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="1"/>
@@ -2451,10 +2497,10 @@
     <row r="33" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2473,10 +2519,10 @@
       <c r="A34" s="45"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="1"/>
@@ -2492,10 +2538,10 @@
     <row r="35" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2514,12 +2560,14 @@
       <c r="A36" s="45"/>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2535,13 +2583,13 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2558,10 +2606,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="1"/>
@@ -2579,12 +2627,14 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2600,13 +2650,13 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2623,13 +2673,13 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2646,13 +2696,13 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2667,10 +2717,10 @@
     <row r="43" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="4"/>
@@ -2689,10 +2739,10 @@
       <c r="A44" s="45"/>
       <c r="C44" s="1"/>
       <c r="D44" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="1"/>
@@ -2710,10 +2760,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="16"/>
       <c r="D45" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="1"/>
@@ -2731,12 +2781,14 @@
       <c r="B46" s="9"/>
       <c r="C46" s="16"/>
       <c r="D46" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2752,10 +2804,10 @@
       <c r="B47" s="31"/>
       <c r="C47" s="35"/>
       <c r="D47" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="1"/>
@@ -2770,13 +2822,13 @@
     </row>
     <row r="48" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2795,13 +2847,13 @@
       <c r="A49" s="48"/>
       <c r="C49" s="1"/>
       <c r="D49" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2818,10 +2870,10 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="1"/>
@@ -2837,10 +2889,10 @@
     <row r="51" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2859,10 +2911,10 @@
       <c r="A52" s="48"/>
       <c r="C52" s="1"/>
       <c r="D52" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="1"/>
@@ -2880,10 +2932,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="1"/>
@@ -2901,10 +2953,10 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="1"/>
@@ -2922,10 +2974,10 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="1"/>
@@ -2941,10 +2993,10 @@
     <row r="56" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2963,10 +3015,10 @@
       <c r="A57" s="48"/>
       <c r="C57" s="1"/>
       <c r="D57" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="1"/>
@@ -2984,12 +3036,14 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
-      <c r="F58" s="29"/>
+      <c r="F58" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3005,10 +3059,10 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="1"/>
@@ -3026,10 +3080,10 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3044,13 +3098,13 @@
     </row>
     <row r="61" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3069,10 +3123,10 @@
       <c r="A62" s="45"/>
       <c r="C62" s="1"/>
       <c r="D62" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="1"/>
@@ -3090,10 +3144,10 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="1"/>
@@ -3111,10 +3165,10 @@
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="1"/>
@@ -19284,7 +19338,7 @@
     <hyperlink ref="D29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="D31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="D34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D36" r:id="rId22" display="2.4.1 Hoppe over blokker" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="D37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="D39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
@@ -19295,7 +19349,7 @@
     <hyperlink ref="D45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="D47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="D46" r:id="rId32" xr:uid="{0D4E969E-9B02-4CF3-901A-36AA07E3D978}"/>
-    <hyperlink ref="D22" r:id="rId33" xr:uid="{08F3348B-74B6-40A6-9263-3DE69726D410}"/>
+    <hyperlink ref="D22" r:id="rId33" display="1.4.10 Dynamisk tilpasning (Reflow)" xr:uid="{08F3348B-74B6-40A6-9263-3DE69726D410}"/>
     <hyperlink ref="D32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="D49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
@@ -19569,16 +19623,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{178D31B1-4023-4B44-885E-F7F325B1783B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b7e1c890-b922-4698-97ff-1384d6802437"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="1704f382-c4af-45b3-98ca-cde3dd2cfb20"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
